--- a/exports/yield_files/LU 5 Early-2.xlsx
+++ b/exports/yield_files/LU 5 Early-2.xlsx
@@ -1642,48 +1642,40 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" t="n">
-        <v>30</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20" t="n">
-        <v>20.73</v>
+        <v>21.4</v>
       </c>
       <c r="P20" t="n">
-        <v>46.65</v>
+        <v>46.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.38</v>
+        <v>67.86</v>
       </c>
       <c r="R20" t="n">
-        <v>2177.8</v>
+        <v>1970.6</v>
       </c>
       <c r="S20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="T20"/>
       <c r="U20" t="n">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="21">
@@ -1703,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -1719,24 +1711,18 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>46.46</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>67.86</v>
-      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
       <c r="R21" t="n">
-        <v>1970.6</v>
+        <v>1803.8</v>
       </c>
       <c r="S21" t="n">
-        <v>13.4</v>
+        <v>11.3</v>
       </c>
       <c r="T21"/>
       <c r="U21" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="22">
@@ -1750,40 +1736,54 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
       <c r="K22" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="M22" t="n">
+        <v>28</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>66.52</v>
+      </c>
       <c r="R22" t="n">
-        <v>1803.8</v>
+        <v>1845.7</v>
       </c>
       <c r="S22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="T22"/>
+        <v>14.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
       <c r="U22" t="n">
-        <v>56.9</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="23">
@@ -1803,15 +1803,15 @@
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
@@ -1820,31 +1820,31 @@
         <v>25</v>
       </c>
       <c r="M23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>21.6</v>
+        <v>20.44</v>
       </c>
       <c r="P23" t="n">
-        <v>44.92</v>
+        <v>46.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.52</v>
+        <v>66.86</v>
       </c>
       <c r="R23" t="n">
-        <v>1845.7</v>
+        <v>1809.7</v>
       </c>
       <c r="S23" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="24">
@@ -1864,48 +1864,40 @@
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="n">
-        <v>6</v>
-      </c>
+      <c r="J24"/>
       <c r="K24" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" t="n">
-        <v>30</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24" t="n">
-        <v>20.44</v>
+        <v>21.73</v>
       </c>
       <c r="P24" t="n">
-        <v>46.42</v>
+        <v>44.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.86</v>
+        <v>66.23</v>
       </c>
       <c r="R24" t="n">
-        <v>1809.7</v>
+        <v>2083.6</v>
       </c>
       <c r="S24" t="n">
         <v>14.7</v>
       </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
+      <c r="T24"/>
       <c r="U24" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1925,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1941,24 +1933,18 @@
       </c>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="P25" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>66.23</v>
-      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
       <c r="R25" t="n">
-        <v>2083.6</v>
+        <v>1840</v>
       </c>
       <c r="S25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="T25"/>
       <c r="U25" t="n">
-        <v>58</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="26">
@@ -1972,40 +1958,54 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
       <c r="K26" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="M26" t="n">
+        <v>29</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="P26" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>66.66</v>
+      </c>
       <c r="R26" t="n">
-        <v>1840</v>
+        <v>1993.7</v>
       </c>
       <c r="S26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="T26"/>
+        <v>12.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
       <c r="U26" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="27">
@@ -2025,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -2042,31 +2042,31 @@
         <v>25</v>
       </c>
       <c r="M27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>21.87</v>
+        <v>21.77</v>
       </c>
       <c r="P27" t="n">
-        <v>44.79</v>
+        <v>44.55</v>
       </c>
       <c r="Q27" t="n">
-        <v>66.66</v>
+        <v>66.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1993.7</v>
+        <v>2145.5</v>
       </c>
       <c r="S27" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>57.4</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="28">
@@ -2086,48 +2086,40 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" t="n">
-        <v>6</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="M28" t="n">
-        <v>30</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28" t="n">
-        <v>21.77</v>
+        <v>21.05</v>
       </c>
       <c r="P28" t="n">
-        <v>44.55</v>
+        <v>45.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.32</v>
+        <v>66.64</v>
       </c>
       <c r="R28" t="n">
-        <v>2145.5</v>
+        <v>2084.6</v>
       </c>
       <c r="S28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="T28"/>
       <c r="U28" t="n">
-        <v>55.9</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="29">
@@ -2147,10 +2139,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -2163,24 +2155,18 @@
       </c>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="P29" t="n">
-        <v>45.59</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>66.64</v>
-      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
       <c r="R29" t="n">
-        <v>2084.6</v>
+        <v>1993.1</v>
       </c>
       <c r="S29" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="T29"/>
       <c r="U29" t="n">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="30">
@@ -2194,40 +2180,54 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
       <c r="K30" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="M30" t="n">
+        <v>30</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="P30" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>65.76</v>
+      </c>
       <c r="R30" t="n">
-        <v>1993.1</v>
+        <v>1972</v>
       </c>
       <c r="S30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T30"/>
+        <v>16.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
       <c r="U30" t="n">
-        <v>57.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -2247,15 +2247,15 @@
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
@@ -2264,31 +2264,31 @@
         <v>25</v>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>21.58</v>
+        <v>21.63</v>
       </c>
       <c r="P31" t="n">
-        <v>44.18</v>
+        <v>44.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.76</v>
+        <v>66.41</v>
       </c>
       <c r="R31" t="n">
-        <v>1972</v>
+        <v>1562.9</v>
       </c>
       <c r="S31" t="n">
-        <v>16.1</v>
+        <v>17.7</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>57</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="32">
@@ -2308,48 +2308,40 @@
         <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
+      <c r="J32"/>
       <c r="K32" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" t="n">
-        <v>31</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
+      <c r="M32"/>
+      <c r="N32"/>
       <c r="O32" t="n">
-        <v>21.63</v>
+        <v>22.69</v>
       </c>
       <c r="P32" t="n">
-        <v>44.78</v>
+        <v>43.14</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.41</v>
+        <v>65.83</v>
       </c>
       <c r="R32" t="n">
-        <v>1562.9</v>
+        <v>1916.6</v>
       </c>
       <c r="S32" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T32"/>
       <c r="U32" t="n">
-        <v>56.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="33">
@@ -2369,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -2385,24 +2377,18 @@
       </c>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="P33" t="n">
-        <v>43.14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>65.83</v>
-      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
       <c r="R33" t="n">
-        <v>1916.6</v>
+        <v>2112.7</v>
       </c>
       <c r="S33" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="T33"/>
       <c r="U33" t="n">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="34">
@@ -2416,40 +2402,54 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
       <c r="K34" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="M34" t="n">
+        <v>28</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>66.46</v>
+      </c>
       <c r="R34" t="n">
-        <v>2112.7</v>
+        <v>1946.9</v>
       </c>
       <c r="S34" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="T34"/>
+        <v>13.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
-        <v>57.5</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="35">
@@ -2469,15 +2469,15 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
         <v>24</v>
@@ -2486,31 +2486,31 @@
         <v>25</v>
       </c>
       <c r="M35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>21.25</v>
+        <v>21.21</v>
       </c>
       <c r="P35" t="n">
-        <v>45.21</v>
+        <v>45.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.46</v>
+        <v>67.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1946.9</v>
+        <v>1982.1</v>
       </c>
       <c r="S35" t="n">
-        <v>13.7</v>
+        <v>14.3</v>
       </c>
       <c r="T35" t="n">
         <v>1.5</v>
       </c>
       <c r="U35" t="n">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="36">
@@ -2530,48 +2530,40 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
+      <c r="J36"/>
       <c r="K36" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="M36" t="n">
-        <v>27</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
+      <c r="M36"/>
+      <c r="N36"/>
       <c r="O36" t="n">
-        <v>21.21</v>
+        <v>21.38</v>
       </c>
       <c r="P36" t="n">
-        <v>45.83</v>
+        <v>45.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.04</v>
+        <v>66.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1982.1</v>
+        <v>2066.9</v>
       </c>
       <c r="S36" t="n">
         <v>14.3</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="T36"/>
       <c r="U36" t="n">
-        <v>57.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -2591,10 +2583,10 @@
         <v>9</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -2607,20 +2599,14 @@
       </c>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="P37" t="n">
-        <v>45.12</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
       <c r="R37" t="n">
-        <v>2066.9</v>
+        <v>1947.9</v>
       </c>
       <c r="S37" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="T37"/>
       <c r="U37" t="n">
@@ -2638,40 +2624,54 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
         <v>4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>126</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+        <v>36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>28</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>67.17</v>
+      </c>
       <c r="R38" t="n">
-        <v>1947.9</v>
+        <v>1730.2</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
-      </c>
-      <c r="T38"/>
+        <v>13.9</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
       <c r="U38" t="n">
-        <v>58</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="39">
@@ -2691,15 +2691,15 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="s">
         <v>24</v>
@@ -2714,25 +2714,25 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>21.9</v>
+        <v>20.52</v>
       </c>
       <c r="P39" t="n">
-        <v>45.27</v>
+        <v>46.61</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.17</v>
+        <v>67.13</v>
       </c>
       <c r="R39" t="n">
-        <v>1730.2</v>
+        <v>2182.7</v>
       </c>
       <c r="S39" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="40">
@@ -2752,48 +2752,40 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
+      <c r="J40"/>
       <c r="K40" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="s">
         <v>36</v>
       </c>
-      <c r="M40" t="n">
-        <v>28</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="O40" t="n">
-        <v>20.52</v>
+        <v>20.82</v>
       </c>
       <c r="P40" t="n">
-        <v>46.61</v>
+        <v>46.29</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.13</v>
+        <v>67.11</v>
       </c>
       <c r="R40" t="n">
-        <v>2182.7</v>
+        <v>1875.3</v>
       </c>
       <c r="S40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="T40"/>
       <c r="U40" t="n">
-        <v>58.2</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="41">
@@ -2813,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -2829,24 +2821,18 @@
       </c>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="P41" t="n">
-        <v>46.29</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>67.11</v>
-      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
       <c r="R41" t="n">
-        <v>1875.3</v>
+        <v>2074.9</v>
       </c>
       <c r="S41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T41"/>
       <c r="U41" t="n">
-        <v>57.7</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="42">
@@ -2860,40 +2846,54 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
         <v>36</v>
       </c>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="M42" t="n">
+        <v>54</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>68.73</v>
+      </c>
       <c r="R42" t="n">
-        <v>2074.9</v>
+        <v>1495.2</v>
       </c>
       <c r="S42" t="n">
-        <v>16</v>
-      </c>
-      <c r="T42"/>
+        <v>16.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
       <c r="U42" t="n">
-        <v>58.6</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="43">
@@ -2913,10 +2913,10 @@
         <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
@@ -2930,31 +2930,31 @@
         <v>36</v>
       </c>
       <c r="M43" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O43" t="n">
-        <v>20.75</v>
+        <v>22.09</v>
       </c>
       <c r="P43" t="n">
-        <v>47.98</v>
+        <v>45.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.73</v>
+        <v>67.19</v>
       </c>
       <c r="R43" t="n">
-        <v>1495.2</v>
+        <v>1555.6</v>
       </c>
       <c r="S43" t="n">
-        <v>16.2</v>
+        <v>15.1</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>57.1</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="44">
@@ -2974,48 +2974,40 @@
         <v>11</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" t="s">
         <v>27</v>
       </c>
       <c r="L44" t="s">
         <v>36</v>
       </c>
-      <c r="M44" t="n">
-        <v>51</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M44"/>
+      <c r="N44"/>
       <c r="O44" t="n">
-        <v>22.09</v>
+        <v>21.76</v>
       </c>
       <c r="P44" t="n">
-        <v>45.1</v>
+        <v>46.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.19</v>
+        <v>67.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1555.6</v>
+        <v>1204.7</v>
       </c>
       <c r="S44" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="T44"/>
       <c r="U44" t="n">
-        <v>56.2</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="45">
@@ -3035,10 +3027,10 @@
         <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -3051,24 +3043,18 @@
       </c>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="P45" t="n">
-        <v>46.04</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>67.8</v>
-      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
       <c r="R45" t="n">
-        <v>1204.7</v>
+        <v>1406.5</v>
       </c>
       <c r="S45" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="T45"/>
       <c r="U45" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="46">
@@ -3082,40 +3068,54 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+        <v>25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>28</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>67.55</v>
+      </c>
       <c r="R46" t="n">
-        <v>1406.5</v>
+        <v>1723.5</v>
       </c>
       <c r="S46" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T46"/>
+        <v>12.8</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
       <c r="U46" t="n">
-        <v>57.4</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="47">
@@ -3135,15 +3135,15 @@
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="s">
         <v>24</v>
@@ -3152,31 +3152,31 @@
         <v>25</v>
       </c>
       <c r="M47" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>22.3</v>
+        <v>21.21</v>
       </c>
       <c r="P47" t="n">
-        <v>45.25</v>
+        <v>45.82</v>
       </c>
       <c r="Q47" t="n">
-        <v>67.55</v>
+        <v>67.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1723.5</v>
+        <v>2091.1</v>
       </c>
       <c r="S47" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>57.9</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="48">
@@ -3196,48 +3196,40 @@
         <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="M48" t="n">
-        <v>26</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48"/>
+      <c r="N48"/>
       <c r="O48" t="n">
-        <v>21.21</v>
+        <v>21.68</v>
       </c>
       <c r="P48" t="n">
-        <v>45.82</v>
+        <v>45.68</v>
       </c>
       <c r="Q48" t="n">
-        <v>67.03</v>
+        <v>67.36</v>
       </c>
       <c r="R48" t="n">
-        <v>2091.1</v>
+        <v>2168.6</v>
       </c>
       <c r="S48" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1</v>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="T48"/>
       <c r="U48" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="49">
@@ -3257,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
@@ -3273,24 +3265,18 @@
       </c>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="P49" t="n">
-        <v>45.68</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>67.36</v>
-      </c>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
       <c r="R49" t="n">
-        <v>2168.6</v>
+        <v>1856.7</v>
       </c>
       <c r="S49" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="T49"/>
       <c r="U49" t="n">
-        <v>58.6</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="50">
@@ -3304,40 +3290,54 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
+      <c r="J50" t="n">
+        <v>11</v>
+      </c>
       <c r="K50" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="s">
         <v>25</v>
       </c>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="M50" t="n">
+        <v>56</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>43.88</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>66.41</v>
+      </c>
       <c r="R50" t="n">
-        <v>1856.7</v>
+        <v>1744.2</v>
       </c>
       <c r="S50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="T50"/>
+        <v>13.7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
-        <v>57.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
@@ -3357,15 +3357,15 @@
         <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
         <v>24</v>
@@ -3374,31 +3374,31 @@
         <v>25</v>
       </c>
       <c r="M51" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="P51" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T51" t="n">
         <v>2</v>
       </c>
-      <c r="O51" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>43.88</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1744.2</v>
-      </c>
-      <c r="S51" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.5</v>
-      </c>
       <c r="U51" t="n">
-        <v>58</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="52">
@@ -3418,48 +3418,40 @@
         <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" t="n">
-        <v>13</v>
-      </c>
+      <c r="J52"/>
       <c r="K52" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="M52" t="n">
-        <v>57</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M52"/>
+      <c r="N52"/>
       <c r="O52" t="n">
-        <v>22.43</v>
+        <v>22.35</v>
       </c>
       <c r="P52" t="n">
-        <v>43.63</v>
+        <v>43.85</v>
       </c>
       <c r="Q52" t="n">
-        <v>66.06</v>
+        <v>66.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1443.8</v>
+        <v>1399.7</v>
       </c>
       <c r="S52" t="n">
         <v>12.9</v>
       </c>
-      <c r="T52" t="n">
-        <v>2</v>
-      </c>
+      <c r="T52"/>
       <c r="U52" t="n">
-        <v>57.8</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="53">
@@ -3479,10 +3471,10 @@
         <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -3495,24 +3487,18 @@
       </c>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="P53" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
       <c r="R53" t="n">
-        <v>1399.7</v>
+        <v>1518.4</v>
       </c>
       <c r="S53" t="n">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
       <c r="T53"/>
       <c r="U53" t="n">
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="54">
@@ -3526,40 +3512,54 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
       <c r="K54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
         <v>25</v>
       </c>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="M54" t="n">
+        <v>31</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="P54" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>67.39</v>
+      </c>
       <c r="R54" t="n">
-        <v>1518.4</v>
+        <v>1959.9</v>
       </c>
       <c r="S54" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T54"/>
+        <v>13.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
       <c r="U54" t="n">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="55">
@@ -3579,15 +3579,15 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55" t="s">
         <v>41</v>
@@ -3596,31 +3596,31 @@
         <v>25</v>
       </c>
       <c r="M55" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>22.17</v>
+        <v>22.24</v>
       </c>
       <c r="P55" t="n">
-        <v>45.22</v>
+        <v>45.49</v>
       </c>
       <c r="Q55" t="n">
-        <v>67.39</v>
+        <v>67.73</v>
       </c>
       <c r="R55" t="n">
-        <v>1959.9</v>
+        <v>1812.5</v>
       </c>
       <c r="S55" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>57.7</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="56">
@@ -3640,48 +3640,40 @@
         <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
+      <c r="J56"/>
       <c r="K56" t="s">
         <v>41</v>
       </c>
       <c r="L56" t="s">
         <v>25</v>
       </c>
-      <c r="M56" t="n">
-        <v>33</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
+      <c r="M56"/>
+      <c r="N56"/>
       <c r="O56" t="n">
-        <v>22.24</v>
+        <v>22.69</v>
       </c>
       <c r="P56" t="n">
-        <v>45.49</v>
+        <v>43.82</v>
       </c>
       <c r="Q56" t="n">
-        <v>67.73</v>
+        <v>66.51</v>
       </c>
       <c r="R56" t="n">
-        <v>1812.5</v>
+        <v>2375.6</v>
       </c>
       <c r="S56" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="T56"/>
       <c r="U56" t="n">
-        <v>58.4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -3701,10 +3693,10 @@
         <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -3717,24 +3709,18 @@
       </c>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="P57" t="n">
-        <v>43.82</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>66.51</v>
-      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
       <c r="R57" t="n">
-        <v>2375.6</v>
+        <v>2121.3</v>
       </c>
       <c r="S57" t="n">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="T57"/>
       <c r="U57" t="n">
-        <v>58</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="58">
@@ -3748,40 +3734,54 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L58" t="s">
         <v>25</v>
       </c>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="M58" t="n">
+        <v>57</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="P58" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>66.92</v>
+      </c>
       <c r="R58" t="n">
-        <v>2121.3</v>
+        <v>1182.6</v>
       </c>
       <c r="S58" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T58"/>
+        <v>13.4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
       <c r="U58" t="n">
-        <v>58.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
@@ -3801,10 +3801,10 @@
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
@@ -3818,31 +3818,31 @@
         <v>25</v>
       </c>
       <c r="M59" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N59" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O59" t="n">
-        <v>21.51</v>
+        <v>21.17</v>
       </c>
       <c r="P59" t="n">
-        <v>45.41</v>
+        <v>46.66</v>
       </c>
       <c r="Q59" t="n">
-        <v>66.92</v>
+        <v>67.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1182.6</v>
+        <v>1120.8</v>
       </c>
       <c r="S59" t="n">
-        <v>13.4</v>
+        <v>16.6</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>58</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="60">
@@ -3862,48 +3862,40 @@
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" t="n">
-        <v>5</v>
-      </c>
+      <c r="J60"/>
       <c r="K60" t="s">
         <v>27</v>
       </c>
       <c r="L60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" t="n">
-        <v>56</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="M60"/>
+      <c r="N60"/>
       <c r="O60" t="n">
-        <v>21.17</v>
+        <v>21.33</v>
       </c>
       <c r="P60" t="n">
-        <v>46.66</v>
+        <v>45.68</v>
       </c>
       <c r="Q60" t="n">
-        <v>67.83</v>
+        <v>67.01</v>
       </c>
       <c r="R60" t="n">
-        <v>1120.8</v>
+        <v>1272.1</v>
       </c>
       <c r="S60" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="T60"/>
       <c r="U60" t="n">
-        <v>57.4</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="61">
@@ -3923,10 +3915,10 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -3939,24 +3931,18 @@
       </c>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="P61" t="n">
-        <v>45.68</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>67.01</v>
-      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
       <c r="R61" t="n">
-        <v>1272.1</v>
+        <v>1040.7</v>
       </c>
       <c r="S61" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="T61"/>
       <c r="U61" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="62">
@@ -3970,40 +3956,54 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
+      <c r="J62" t="n">
+        <v>7</v>
+      </c>
       <c r="K62" t="s">
         <v>27</v>
       </c>
       <c r="L62" t="s">
         <v>25</v>
       </c>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="M62" t="n">
+        <v>48</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>65.84</v>
+      </c>
       <c r="R62" t="n">
-        <v>1040.7</v>
+        <v>1452.6</v>
       </c>
       <c r="S62" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T62"/>
+        <v>12.6</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2</v>
+      </c>
       <c r="U62" t="n">
-        <v>57.9</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="63">
@@ -4023,15 +4023,15 @@
         <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K63" t="s">
         <v>27</v>
@@ -4040,31 +4040,31 @@
         <v>25</v>
       </c>
       <c r="M63" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O63" t="n">
-        <v>22.59</v>
+        <v>22.32</v>
       </c>
       <c r="P63" t="n">
-        <v>43.25</v>
+        <v>44.3</v>
       </c>
       <c r="Q63" t="n">
-        <v>65.84</v>
+        <v>66.62</v>
       </c>
       <c r="R63" t="n">
-        <v>1452.6</v>
+        <v>1680.5</v>
       </c>
       <c r="S63" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="T63" t="n">
         <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="64">
@@ -4084,48 +4084,40 @@
         <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" t="n">
-        <v>8</v>
-      </c>
+      <c r="J64"/>
       <c r="K64" t="s">
         <v>27</v>
       </c>
       <c r="L64" t="s">
         <v>25</v>
       </c>
-      <c r="M64" t="n">
-        <v>47</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M64"/>
+      <c r="N64"/>
       <c r="O64" t="n">
-        <v>22.32</v>
+        <v>22.71</v>
       </c>
       <c r="P64" t="n">
-        <v>44.3</v>
+        <v>43.77</v>
       </c>
       <c r="Q64" t="n">
-        <v>66.62</v>
+        <v>66.48</v>
       </c>
       <c r="R64" t="n">
-        <v>1680.5</v>
+        <v>1127.1</v>
       </c>
       <c r="S64" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="T64" t="n">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T64"/>
       <c r="U64" t="n">
-        <v>57.9</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="65">
@@ -4145,10 +4137,10 @@
         <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -4161,24 +4153,18 @@
       </c>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="P65" t="n">
-        <v>43.77</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>66.48</v>
-      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
       <c r="R65" t="n">
-        <v>1127.1</v>
+        <v>1554.6</v>
       </c>
       <c r="S65" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="T65"/>
       <c r="U65" t="n">
-        <v>57.3</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="66">
@@ -4192,38 +4178,52 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
+      <c r="J66" t="n">
+        <v>11</v>
+      </c>
       <c r="K66" t="s">
         <v>27</v>
       </c>
       <c r="L66" t="s">
         <v>25</v>
       </c>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="M66" t="n">
+        <v>42</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P66" t="n">
+        <v>47.17</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>69.22</v>
+      </c>
       <c r="R66" t="n">
-        <v>1554.6</v>
+        <v>1447.9</v>
       </c>
       <c r="S66" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T66"/>
+        <v>16</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2</v>
+      </c>
       <c r="U66" t="n">
         <v>57.7</v>
       </c>
@@ -4245,15 +4245,15 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
         <v>27</v>
@@ -4262,31 +4262,31 @@
         <v>25</v>
       </c>
       <c r="M67" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
       <c r="O67" t="n">
-        <v>22.05</v>
+        <v>22.3</v>
       </c>
       <c r="P67" t="n">
-        <v>47.17</v>
+        <v>46.38</v>
       </c>
       <c r="Q67" t="n">
-        <v>69.22</v>
+        <v>68.68</v>
       </c>
       <c r="R67" t="n">
-        <v>1447.9</v>
+        <v>1691.9</v>
       </c>
       <c r="S67" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="T67" t="n">
         <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>57.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="68">
@@ -4306,48 +4306,40 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" t="n">
-        <v>12</v>
-      </c>
+      <c r="J68"/>
       <c r="K68" t="s">
         <v>27</v>
       </c>
       <c r="L68" t="s">
         <v>25</v>
       </c>
-      <c r="M68" t="n">
-        <v>40</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M68"/>
+      <c r="N68"/>
       <c r="O68" t="n">
-        <v>22.3</v>
+        <v>22.67</v>
       </c>
       <c r="P68" t="n">
-        <v>46.38</v>
+        <v>46.94</v>
       </c>
       <c r="Q68" t="n">
-        <v>68.68</v>
+        <v>69.61</v>
       </c>
       <c r="R68" t="n">
-        <v>1691.9</v>
+        <v>1570.3</v>
       </c>
       <c r="S68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2</v>
-      </c>
+        <v>16.1</v>
+      </c>
+      <c r="T68"/>
       <c r="U68" t="n">
-        <v>57.3</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="69">
@@ -4367,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -4383,24 +4375,18 @@
       </c>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="P69" t="n">
-        <v>46.94</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>69.61</v>
-      </c>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
       <c r="R69" t="n">
-        <v>1570.3</v>
+        <v>1614</v>
       </c>
       <c r="S69" t="n">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="T69"/>
       <c r="U69" t="n">
-        <v>57.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70">
@@ -4414,40 +4400,54 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
+      <c r="J70" t="n">
+        <v>12</v>
+      </c>
       <c r="K70" t="s">
         <v>27</v>
       </c>
       <c r="L70" t="s">
         <v>25</v>
       </c>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="M70" t="n">
+        <v>61</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="P70" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>69.28</v>
+      </c>
       <c r="R70" t="n">
-        <v>1614</v>
+        <v>1408.6</v>
       </c>
       <c r="S70" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="T70"/>
+        <v>17.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
       <c r="U70" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71">
@@ -4467,10 +4467,10 @@
         <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -4484,31 +4484,31 @@
         <v>25</v>
       </c>
       <c r="M71" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N71" t="n">
         <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>23.11</v>
+        <v>23.16</v>
       </c>
       <c r="P71" t="n">
         <v>46.17</v>
       </c>
       <c r="Q71" t="n">
-        <v>69.28</v>
+        <v>69.33</v>
       </c>
       <c r="R71" t="n">
-        <v>1408.6</v>
+        <v>1413.4</v>
       </c>
       <c r="S71" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U71" t="n">
-        <v>58</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="72">
@@ -4528,48 +4528,40 @@
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>12</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="s">
         <v>27</v>
       </c>
       <c r="L72" t="s">
         <v>25</v>
       </c>
-      <c r="M72" t="n">
-        <v>59</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2</v>
-      </c>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="O72" t="n">
-        <v>23.16</v>
+        <v>22.51</v>
       </c>
       <c r="P72" t="n">
-        <v>46.17</v>
+        <v>46.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>69.33</v>
+        <v>68.91</v>
       </c>
       <c r="R72" t="n">
-        <v>1413.4</v>
+        <v>1300.2</v>
       </c>
       <c r="S72" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.5</v>
-      </c>
+        <v>17.4</v>
+      </c>
+      <c r="T72"/>
       <c r="U72" t="n">
-        <v>58.4</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="73">
@@ -4589,10 +4581,10 @@
         <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
@@ -4605,24 +4597,18 @@
       </c>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="P73" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>68.91</v>
-      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
       <c r="R73" t="n">
-        <v>1300.2</v>
+        <v>1140.8</v>
       </c>
       <c r="S73" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="T73"/>
       <c r="U73" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="74">
@@ -4636,40 +4622,54 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
       <c r="K74" t="s">
         <v>27</v>
       </c>
       <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="M74" t="n">
+        <v>29</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P74" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>68.37</v>
+      </c>
       <c r="R74" t="n">
-        <v>1140.8</v>
+        <v>2245.5</v>
       </c>
       <c r="S74" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="T74"/>
+        <v>13.3</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
       <c r="U74" t="n">
-        <v>57.4</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="75">
@@ -4689,15 +4689,15 @@
         <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75" t="s">
         <v>27</v>
@@ -4706,25 +4706,25 @@
         <v>25</v>
       </c>
       <c r="M75" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>22.22</v>
+        <v>22.37</v>
       </c>
       <c r="P75" t="n">
-        <v>46.15</v>
+        <v>46.35</v>
       </c>
       <c r="Q75" t="n">
-        <v>68.37</v>
+        <v>68.72</v>
       </c>
       <c r="R75" t="n">
-        <v>2245.5</v>
+        <v>1836.5</v>
       </c>
       <c r="S75" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -4750,48 +4750,40 @@
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>5</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" t="s">
         <v>27</v>
       </c>
       <c r="L76" t="s">
         <v>25</v>
       </c>
-      <c r="M76" t="n">
-        <v>30</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
+      <c r="M76"/>
+      <c r="N76"/>
       <c r="O76" t="n">
-        <v>22.37</v>
+        <v>22.38</v>
       </c>
       <c r="P76" t="n">
-        <v>46.35</v>
+        <v>45.44</v>
       </c>
       <c r="Q76" t="n">
-        <v>68.72</v>
+        <v>67.82</v>
       </c>
       <c r="R76" t="n">
-        <v>1836.5</v>
+        <v>2000.8</v>
       </c>
       <c r="S76" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="T76"/>
       <c r="U76" t="n">
-        <v>58.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="77">
@@ -4811,10 +4803,10 @@
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -4827,24 +4819,18 @@
       </c>
       <c r="M77"/>
       <c r="N77"/>
-      <c r="O77" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="P77" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>67.82</v>
-      </c>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
       <c r="R77" t="n">
-        <v>2000.8</v>
+        <v>1904.2</v>
       </c>
       <c r="S77" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="T77"/>
       <c r="U77" t="n">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="78">
@@ -4858,40 +4844,54 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
+      <c r="J78" t="n">
+        <v>5</v>
+      </c>
       <c r="K78" t="s">
         <v>27</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
-      </c>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+        <v>48</v>
+      </c>
+      <c r="M78" t="n">
+        <v>48</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P78" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>65.99</v>
+      </c>
       <c r="R78" t="n">
-        <v>1904.2</v>
+        <v>1788.5</v>
       </c>
       <c r="S78" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T78"/>
+        <v>15</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
-        <v>58.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="79">
@@ -4911,15 +4911,15 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K79" t="s">
         <v>27</v>
@@ -4928,31 +4928,31 @@
         <v>48</v>
       </c>
       <c r="M79" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N79" t="n">
         <v>2.5</v>
       </c>
       <c r="O79" t="n">
-        <v>22.89</v>
+        <v>23.87</v>
       </c>
       <c r="P79" t="n">
-        <v>43.1</v>
+        <v>42.47</v>
       </c>
       <c r="Q79" t="n">
-        <v>65.99</v>
+        <v>66.34</v>
       </c>
       <c r="R79" t="n">
-        <v>1788.5</v>
+        <v>1831.6</v>
       </c>
       <c r="S79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="T79" t="n">
         <v>1.5</v>
       </c>
       <c r="U79" t="n">
-        <v>56.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="80">
@@ -4972,48 +4972,40 @@
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>6</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>27</v>
       </c>
       <c r="L80" t="s">
         <v>48</v>
       </c>
-      <c r="M80" t="n">
-        <v>49</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="O80" t="n">
-        <v>23.87</v>
+        <v>22.85</v>
       </c>
       <c r="P80" t="n">
-        <v>42.47</v>
+        <v>43.16</v>
       </c>
       <c r="Q80" t="n">
-        <v>66.34</v>
+        <v>66.01</v>
       </c>
       <c r="R80" t="n">
-        <v>1831.6</v>
+        <v>1667</v>
       </c>
       <c r="S80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.5</v>
-      </c>
+        <v>15.9</v>
+      </c>
+      <c r="T80"/>
       <c r="U80" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81">
@@ -5033,10 +5025,10 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -5049,24 +5041,18 @@
       </c>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43.16</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>66.01</v>
-      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="R81" t="n">
-        <v>1667</v>
+        <v>1317</v>
       </c>
       <c r="S81" t="n">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="T81"/>
       <c r="U81" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="82">
@@ -5080,40 +5066,54 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" t="n">
+        <v>6</v>
+      </c>
       <c r="K82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
         <v>48</v>
       </c>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="M82" t="n">
+        <v>28</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="P82" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>67.89</v>
+      </c>
       <c r="R82" t="n">
-        <v>1317</v>
+        <v>1444.1</v>
       </c>
       <c r="S82" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="T82"/>
+        <v>14.6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
       <c r="U82" t="n">
-        <v>56.9</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="83">
@@ -5133,15 +5133,15 @@
         <v>21</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K83" t="s">
         <v>24</v>
@@ -5156,25 +5156,25 @@
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>19.79</v>
+        <v>19.81</v>
       </c>
       <c r="P83" t="n">
-        <v>48.1</v>
+        <v>48.07</v>
       </c>
       <c r="Q83" t="n">
-        <v>67.89</v>
+        <v>67.88</v>
       </c>
       <c r="R83" t="n">
-        <v>1444.1</v>
+        <v>1721.5</v>
       </c>
       <c r="S83" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="T83" t="n">
         <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>57.8</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="84">
@@ -5194,48 +5194,40 @@
         <v>21</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="s">
         <v>48</v>
       </c>
-      <c r="M84" t="n">
-        <v>28</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="O84" t="n">
         <v>19.81</v>
       </c>
       <c r="P84" t="n">
-        <v>48.07</v>
+        <v>47.48</v>
       </c>
       <c r="Q84" t="n">
-        <v>67.88</v>
+        <v>67.29</v>
       </c>
       <c r="R84" t="n">
-        <v>1721.5</v>
+        <v>1847.7</v>
       </c>
       <c r="S84" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1</v>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="T84"/>
       <c r="U84" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="85">
@@ -5255,10 +5247,10 @@
         <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -5271,24 +5263,18 @@
       </c>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="P85" t="n">
-        <v>47.48</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>67.29</v>
-      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
       <c r="R85" t="n">
-        <v>1847.7</v>
+        <v>1505.7</v>
       </c>
       <c r="S85" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="T85"/>
       <c r="U85" t="n">
-        <v>58.8</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="86">
@@ -5302,40 +5288,54 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>9</v>
+      </c>
       <c r="K86" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="s">
         <v>48</v>
       </c>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="M86" t="n">
+        <v>26</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P86" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>66.33</v>
+      </c>
       <c r="R86" t="n">
-        <v>1505.7</v>
+        <v>1978.3</v>
       </c>
       <c r="S86" t="n">
-        <v>16</v>
-      </c>
-      <c r="T86"/>
+        <v>14.1</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
       <c r="U86" t="n">
-        <v>57.5</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="87">
@@ -5355,15 +5355,15 @@
         <v>22</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
         <v>24</v>
@@ -5372,31 +5372,31 @@
         <v>48</v>
       </c>
       <c r="M87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N87" t="n">
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>23.33</v>
+        <v>23.19</v>
       </c>
       <c r="P87" t="n">
-        <v>43</v>
+        <v>42.67</v>
       </c>
       <c r="Q87" t="n">
-        <v>66.33</v>
+        <v>65.86</v>
       </c>
       <c r="R87" t="n">
-        <v>1978.3</v>
+        <v>1914</v>
       </c>
       <c r="S87" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="T87" t="n">
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="88">
@@ -5416,48 +5416,40 @@
         <v>22</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="s">
         <v>48</v>
       </c>
-      <c r="M88" t="n">
-        <v>27</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
+      <c r="M88"/>
+      <c r="N88"/>
       <c r="O88" t="n">
-        <v>23.19</v>
+        <v>22.62</v>
       </c>
       <c r="P88" t="n">
-        <v>42.67</v>
+        <v>43.41</v>
       </c>
       <c r="Q88" t="n">
-        <v>65.86</v>
+        <v>66.03</v>
       </c>
       <c r="R88" t="n">
-        <v>1914</v>
+        <v>2192.3</v>
       </c>
       <c r="S88" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
+        <v>15.3</v>
+      </c>
+      <c r="T88"/>
       <c r="U88" t="n">
-        <v>57.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="89">
@@ -5477,10 +5469,10 @@
         <v>22</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
@@ -5493,24 +5485,18 @@
       </c>
       <c r="M89"/>
       <c r="N89"/>
-      <c r="O89" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="P89" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>66.03</v>
-      </c>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
       <c r="R89" t="n">
-        <v>2192.3</v>
+        <v>1863.5</v>
       </c>
       <c r="S89" t="n">
-        <v>15.3</v>
+        <v>13.2</v>
       </c>
       <c r="T89"/>
       <c r="U89" t="n">
-        <v>56.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="90">
@@ -5524,40 +5510,54 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>48</v>
-      </c>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+        <v>25</v>
+      </c>
+      <c r="M90" t="n">
+        <v>28</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="P90" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>65.94</v>
+      </c>
       <c r="R90" t="n">
-        <v>1863.5</v>
+        <v>1927.9</v>
       </c>
       <c r="S90" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T90"/>
+        <v>14.8</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
       <c r="U90" t="n">
-        <v>57.3</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="91">
@@ -5577,15 +5577,15 @@
         <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91" t="s">
         <v>41</v>
@@ -5594,31 +5594,31 @@
         <v>25</v>
       </c>
       <c r="M91" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N91" t="n">
         <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>22.94</v>
+        <v>22.64</v>
       </c>
       <c r="P91" t="n">
-        <v>43</v>
+        <v>43.26</v>
       </c>
       <c r="Q91" t="n">
-        <v>65.94</v>
+        <v>65.9</v>
       </c>
       <c r="R91" t="n">
-        <v>1927.9</v>
+        <v>2061.7</v>
       </c>
       <c r="S91" t="n">
-        <v>14.8</v>
+        <v>14.1</v>
       </c>
       <c r="T91" t="n">
         <v>1</v>
       </c>
       <c r="U91" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="92">
@@ -5638,46 +5638,38 @@
         <v>23</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92" t="n">
-        <v>3</v>
-      </c>
+      <c r="J92"/>
       <c r="K92" t="s">
         <v>41</v>
       </c>
       <c r="L92" t="s">
         <v>25</v>
       </c>
-      <c r="M92" t="n">
-        <v>27</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
+      <c r="M92"/>
+      <c r="N92"/>
       <c r="O92" t="n">
-        <v>22.64</v>
+        <v>22.29</v>
       </c>
       <c r="P92" t="n">
-        <v>43.26</v>
+        <v>44.09</v>
       </c>
       <c r="Q92" t="n">
-        <v>65.9</v>
+        <v>66.38</v>
       </c>
       <c r="R92" t="n">
-        <v>2061.7</v>
+        <v>2088.1</v>
       </c>
       <c r="S92" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1</v>
-      </c>
+        <v>16.6</v>
+      </c>
+      <c r="T92"/>
       <c r="U92" t="n">
         <v>57.8</v>
       </c>
@@ -5699,10 +5691,10 @@
         <v>23</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
@@ -5715,24 +5707,18 @@
       </c>
       <c r="M93"/>
       <c r="N93"/>
-      <c r="O93" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="P93" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>66.38</v>
-      </c>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
       <c r="R93" t="n">
-        <v>2088.1</v>
+        <v>2140.9</v>
       </c>
       <c r="S93" t="n">
-        <v>16.6</v>
+        <v>15.6</v>
       </c>
       <c r="T93"/>
       <c r="U93" t="n">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="94">
@@ -5746,40 +5732,54 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94"/>
+      <c r="J94" t="n">
+        <v>6</v>
+      </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L94" t="s">
         <v>25</v>
       </c>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="M94" t="n">
+        <v>30</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P94" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>65.46</v>
+      </c>
       <c r="R94" t="n">
-        <v>2140.9</v>
+        <v>2121.4</v>
       </c>
       <c r="S94" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T94"/>
+        <v>14.1</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
       <c r="U94" t="n">
-        <v>57.9</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="95">
@@ -5799,10 +5799,10 @@
         <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
@@ -5816,31 +5816,31 @@
         <v>25</v>
       </c>
       <c r="M95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>22.39</v>
+        <v>22.85</v>
       </c>
       <c r="P95" t="n">
-        <v>43.07</v>
+        <v>42.43</v>
       </c>
       <c r="Q95" t="n">
-        <v>65.46</v>
+        <v>65.28</v>
       </c>
       <c r="R95" t="n">
-        <v>2121.4</v>
+        <v>2233.7</v>
       </c>
       <c r="S95" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="T95" t="n">
         <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="96">
@@ -5860,48 +5860,40 @@
         <v>24</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" t="n">
-        <v>6</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="M96" t="n">
-        <v>32</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
+      <c r="M96"/>
+      <c r="N96"/>
       <c r="O96" t="n">
-        <v>22.85</v>
+        <v>22.82</v>
       </c>
       <c r="P96" t="n">
-        <v>42.43</v>
+        <v>42.48</v>
       </c>
       <c r="Q96" t="n">
-        <v>65.28</v>
+        <v>65.3</v>
       </c>
       <c r="R96" t="n">
-        <v>2233.7</v>
+        <v>2178.8</v>
       </c>
       <c r="S96" t="n">
-        <v>14</v>
-      </c>
-      <c r="T96" t="n">
-        <v>1</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="T96"/>
       <c r="U96" t="n">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="97">
@@ -5921,10 +5913,10 @@
         <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
@@ -5937,24 +5929,18 @@
       </c>
       <c r="M97"/>
       <c r="N97"/>
-      <c r="O97" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="P97" t="n">
-        <v>42.48</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>65.3</v>
-      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
       <c r="R97" t="n">
-        <v>2178.8</v>
+        <v>1882.6</v>
       </c>
       <c r="S97" t="n">
-        <v>13.9</v>
+        <v>11.7</v>
       </c>
       <c r="T97"/>
       <c r="U97" t="n">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="98">
@@ -5968,40 +5954,54 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L98" t="s">
         <v>25</v>
       </c>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="M98" t="n">
+        <v>28</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P98" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>65.38</v>
+      </c>
       <c r="R98" t="n">
-        <v>1882.6</v>
+        <v>2015.6</v>
       </c>
       <c r="S98" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T98"/>
+        <v>14.5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
       <c r="U98" t="n">
-        <v>57.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="99">
@@ -6021,10 +6021,10 @@
         <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
@@ -6038,31 +6038,31 @@
         <v>25</v>
       </c>
       <c r="M99" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>22.28</v>
+        <v>21.91</v>
       </c>
       <c r="P99" t="n">
-        <v>43.1</v>
+        <v>42.17</v>
       </c>
       <c r="Q99" t="n">
-        <v>65.38</v>
+        <v>64.08</v>
       </c>
       <c r="R99" t="n">
-        <v>2015.6</v>
+        <v>2117.2</v>
       </c>
       <c r="S99" t="n">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="T99" t="n">
         <v>1</v>
       </c>
       <c r="U99" t="n">
-        <v>57.7</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="100">
@@ -6082,48 +6082,40 @@
         <v>25</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" t="s">
         <v>27</v>
       </c>
       <c r="L100" t="s">
         <v>25</v>
       </c>
-      <c r="M100" t="n">
-        <v>26</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
+      <c r="M100"/>
+      <c r="N100"/>
       <c r="O100" t="n">
-        <v>21.91</v>
+        <v>21.65</v>
       </c>
       <c r="P100" t="n">
-        <v>42.17</v>
+        <v>43.06</v>
       </c>
       <c r="Q100" t="n">
-        <v>64.08</v>
+        <v>64.71</v>
       </c>
       <c r="R100" t="n">
-        <v>2117.2</v>
+        <v>2246.7</v>
       </c>
       <c r="S100" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="T100"/>
       <c r="U100" t="n">
-        <v>57.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="101">
@@ -6143,10 +6135,10 @@
         <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -6159,24 +6151,18 @@
       </c>
       <c r="M101"/>
       <c r="N101"/>
-      <c r="O101" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="P101" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>64.71</v>
-      </c>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
       <c r="R101" t="n">
-        <v>2246.7</v>
+        <v>2184.5</v>
       </c>
       <c r="S101" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="T101"/>
       <c r="U101" t="n">
-        <v>57.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="102">
@@ -6190,40 +6176,54 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102"/>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
       <c r="K102" t="s">
         <v>27</v>
       </c>
       <c r="L102" t="s">
         <v>25</v>
       </c>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="M102" t="n">
+        <v>25</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="P102" t="n">
+        <v>45.14</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>66.26</v>
+      </c>
       <c r="R102" t="n">
-        <v>2184.5</v>
+        <v>1673.5</v>
       </c>
       <c r="S102" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="T102"/>
+        <v>12.2</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
       <c r="U102" t="n">
-        <v>58.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="103">
@@ -6243,15 +6243,15 @@
         <v>26</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K103" t="s">
         <v>27</v>
@@ -6266,25 +6266,25 @@
         <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>21.12</v>
+        <v>20.92</v>
       </c>
       <c r="P103" t="n">
-        <v>45.14</v>
+        <v>46.55</v>
       </c>
       <c r="Q103" t="n">
-        <v>66.26</v>
+        <v>67.47</v>
       </c>
       <c r="R103" t="n">
-        <v>1673.5</v>
+        <v>1984.4</v>
       </c>
       <c r="S103" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="T103" t="n">
         <v>1</v>
       </c>
       <c r="U103" t="n">
-        <v>57.2</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="104">
@@ -6304,48 +6304,40 @@
         <v>26</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
-      <c r="J104" t="n">
-        <v>6</v>
-      </c>
+      <c r="J104"/>
       <c r="K104" t="s">
         <v>27</v>
       </c>
       <c r="L104" t="s">
         <v>25</v>
       </c>
-      <c r="M104" t="n">
-        <v>25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
+      <c r="M104"/>
+      <c r="N104"/>
       <c r="O104" t="n">
-        <v>20.92</v>
+        <v>20.97</v>
       </c>
       <c r="P104" t="n">
-        <v>46.55</v>
+        <v>46.71</v>
       </c>
       <c r="Q104" t="n">
-        <v>67.47</v>
+        <v>67.68</v>
       </c>
       <c r="R104" t="n">
-        <v>1984.4</v>
+        <v>1646</v>
       </c>
       <c r="S104" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T104" t="n">
-        <v>1</v>
-      </c>
+        <v>12.8</v>
+      </c>
+      <c r="T104"/>
       <c r="U104" t="n">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="105">
@@ -6365,10 +6357,10 @@
         <v>26</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
@@ -6381,24 +6373,18 @@
       </c>
       <c r="M105"/>
       <c r="N105"/>
-      <c r="O105" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="P105" t="n">
-        <v>46.71</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>67.68</v>
-      </c>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
       <c r="R105" t="n">
-        <v>1646</v>
+        <v>1905.1</v>
       </c>
       <c r="S105" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="T105"/>
       <c r="U105" t="n">
-        <v>57.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="106">
@@ -6412,40 +6398,54 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E106" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106"/>
+      <c r="J106" t="n">
+        <v>6</v>
+      </c>
       <c r="K106" t="s">
         <v>27</v>
       </c>
       <c r="L106" t="s">
         <v>25</v>
       </c>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="M106" t="n">
+        <v>30</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O106" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="P106" t="n">
+        <v>45.62</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>66.93</v>
+      </c>
       <c r="R106" t="n">
-        <v>1905.1</v>
+        <v>1784.1</v>
       </c>
       <c r="S106" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="T106"/>
+        <v>12</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
       <c r="U106" t="n">
-        <v>57.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -6465,10 +6465,10 @@
         <v>27</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -6482,31 +6482,31 @@
         <v>25</v>
       </c>
       <c r="M107" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N107" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>21.31</v>
+        <v>21.55</v>
       </c>
       <c r="P107" t="n">
-        <v>45.62</v>
+        <v>45.73</v>
       </c>
       <c r="Q107" t="n">
-        <v>66.93</v>
+        <v>67.28</v>
       </c>
       <c r="R107" t="n">
-        <v>1784.1</v>
+        <v>1706.9</v>
       </c>
       <c r="S107" t="n">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="T107" t="n">
         <v>1</v>
       </c>
       <c r="U107" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="108">
@@ -6526,48 +6526,40 @@
         <v>27</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" t="n">
-        <v>6</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="s">
         <v>27</v>
       </c>
       <c r="L108" t="s">
         <v>25</v>
       </c>
-      <c r="M108" t="n">
-        <v>31</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
+      <c r="M108"/>
+      <c r="N108"/>
       <c r="O108" t="n">
-        <v>21.55</v>
+        <v>21.26</v>
       </c>
       <c r="P108" t="n">
-        <v>45.73</v>
+        <v>45.69</v>
       </c>
       <c r="Q108" t="n">
-        <v>67.28</v>
+        <v>66.95</v>
       </c>
       <c r="R108" t="n">
-        <v>1706.9</v>
+        <v>1814.9</v>
       </c>
       <c r="S108" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T108" t="n">
-        <v>1</v>
-      </c>
+        <v>12.6</v>
+      </c>
+      <c r="T108"/>
       <c r="U108" t="n">
-        <v>55.8</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="109">
@@ -6587,10 +6579,10 @@
         <v>27</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -6603,24 +6595,18 @@
       </c>
       <c r="M109"/>
       <c r="N109"/>
-      <c r="O109" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="P109" t="n">
-        <v>45.69</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>66.95</v>
-      </c>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
       <c r="R109" t="n">
-        <v>1814.9</v>
+        <v>1738</v>
       </c>
       <c r="S109" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="T109"/>
       <c r="U109" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="110">
@@ -6634,40 +6620,54 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="s">
         <v>27</v>
       </c>
       <c r="L110" t="s">
         <v>25</v>
       </c>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="M110" t="n">
+        <v>22</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="P110" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>66.61</v>
+      </c>
       <c r="R110" t="n">
-        <v>1738</v>
+        <v>1768.3</v>
       </c>
       <c r="S110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T110"/>
+        <v>12.9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
       <c r="U110" t="n">
-        <v>55.6</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="111">
@@ -6687,10 +6687,10 @@
         <v>28</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
@@ -6710,25 +6710,25 @@
         <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>23.37</v>
+        <v>23.34</v>
       </c>
       <c r="P111" t="n">
-        <v>43.24</v>
+        <v>44.11</v>
       </c>
       <c r="Q111" t="n">
-        <v>66.61</v>
+        <v>67.45</v>
       </c>
       <c r="R111" t="n">
-        <v>1768.3</v>
+        <v>1894.7</v>
       </c>
       <c r="S111" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="T111" t="n">
         <v>1</v>
       </c>
       <c r="U111" t="n">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="112">
@@ -6748,48 +6748,40 @@
         <v>28</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112"/>
       <c r="K112" t="s">
         <v>27</v>
       </c>
       <c r="L112" t="s">
         <v>25</v>
       </c>
-      <c r="M112" t="n">
-        <v>22</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
+      <c r="M112"/>
+      <c r="N112"/>
       <c r="O112" t="n">
-        <v>23.34</v>
+        <v>23.32</v>
       </c>
       <c r="P112" t="n">
-        <v>44.11</v>
+        <v>42.51</v>
       </c>
       <c r="Q112" t="n">
-        <v>67.45</v>
+        <v>65.83</v>
       </c>
       <c r="R112" t="n">
-        <v>1894.7</v>
+        <v>1818.6</v>
       </c>
       <c r="S112" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1</v>
-      </c>
+        <v>12.5</v>
+      </c>
+      <c r="T112"/>
       <c r="U112" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="113">
@@ -6809,10 +6801,10 @@
         <v>28</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
@@ -6825,24 +6817,18 @@
       </c>
       <c r="M113"/>
       <c r="N113"/>
-      <c r="O113" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="P113" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>65.83</v>
-      </c>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
       <c r="R113" t="n">
-        <v>1818.6</v>
+        <v>2021.4</v>
       </c>
       <c r="S113" t="n">
         <v>12.5</v>
       </c>
       <c r="T113"/>
       <c r="U113" t="n">
-        <v>56.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
@@ -6856,40 +6842,54 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
+      <c r="J114" t="n">
+        <v>4</v>
+      </c>
       <c r="K114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L114" t="s">
-        <v>25</v>
-      </c>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+        <v>48</v>
+      </c>
+      <c r="M114" t="n">
+        <v>25</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="P114" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>65.68</v>
+      </c>
       <c r="R114" t="n">
-        <v>2021.4</v>
+        <v>1788</v>
       </c>
       <c r="S114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T114"/>
+        <v>15</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
       <c r="U114" t="n">
-        <v>57</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="115">
@@ -6909,10 +6909,10 @@
         <v>29</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
@@ -6929,28 +6929,28 @@
         <v>25</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O115" t="n">
-        <v>23.98</v>
+        <v>24.53</v>
       </c>
       <c r="P115" t="n">
-        <v>41.7</v>
+        <v>41.39</v>
       </c>
       <c r="Q115" t="n">
-        <v>65.68</v>
+        <v>65.92</v>
       </c>
       <c r="R115" t="n">
-        <v>1788</v>
+        <v>2196.3</v>
       </c>
       <c r="S115" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="T115" t="n">
         <v>1</v>
       </c>
       <c r="U115" t="n">
-        <v>58.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="116">
@@ -6970,48 +6970,40 @@
         <v>29</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
-      <c r="J116" t="n">
-        <v>4</v>
-      </c>
+      <c r="J116"/>
       <c r="K116" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="s">
         <v>48</v>
       </c>
-      <c r="M116" t="n">
-        <v>25</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M116"/>
+      <c r="N116"/>
       <c r="O116" t="n">
-        <v>24.53</v>
+        <v>24.8</v>
       </c>
       <c r="P116" t="n">
-        <v>41.39</v>
+        <v>41.4</v>
       </c>
       <c r="Q116" t="n">
-        <v>65.92</v>
+        <v>66.2</v>
       </c>
       <c r="R116" t="n">
-        <v>2196.3</v>
+        <v>1979.1</v>
       </c>
       <c r="S116" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="T116" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T116"/>
       <c r="U116" t="n">
-        <v>57.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
@@ -7031,10 +7023,10 @@
         <v>29</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -7047,24 +7039,18 @@
       </c>
       <c r="M117"/>
       <c r="N117"/>
-      <c r="O117" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="P117" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
       <c r="R117" t="n">
-        <v>1979.1</v>
+        <v>1989.8</v>
       </c>
       <c r="S117" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="T117"/>
       <c r="U117" t="n">
-        <v>57</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="118">
@@ -7078,41 +7064,53 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E118" t="n">
+        <v>30</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
         <v>29</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>135</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
       <c r="K118" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L118" t="s">
-        <v>48</v>
-      </c>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+        <v>25</v>
+      </c>
+      <c r="M118" t="n">
+        <v>25</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="P118" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>63.91</v>
+      </c>
       <c r="R118" t="n">
-        <v>1989.8</v>
+        <v>2041.6</v>
       </c>
       <c r="S118" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="T118"/>
-      <c r="U118" t="n">
-        <v>57.3</v>
-      </c>
+        <v>13.2</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2</v>
+      </c>
+      <c r="U118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -7131,15 +7129,15 @@
         <v>30</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K119" t="s">
         <v>41</v>
@@ -7148,28 +7146,28 @@
         <v>25</v>
       </c>
       <c r="M119" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N119" t="n">
         <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>22.06</v>
+        <v>22.91</v>
       </c>
       <c r="P119" t="n">
-        <v>41.85</v>
+        <v>41.25</v>
       </c>
       <c r="Q119" t="n">
-        <v>63.91</v>
+        <v>64.16</v>
       </c>
       <c r="R119" t="n">
-        <v>2041.6</v>
+        <v>1898.4</v>
       </c>
       <c r="S119" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="T119" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U119"/>
     </row>
@@ -7190,46 +7188,38 @@
         <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
-      <c r="J120" t="n">
-        <v>4</v>
-      </c>
+      <c r="J120"/>
       <c r="K120" t="s">
         <v>41</v>
       </c>
       <c r="L120" t="s">
         <v>25</v>
       </c>
-      <c r="M120" t="n">
-        <v>24</v>
-      </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
+      <c r="M120"/>
+      <c r="N120"/>
       <c r="O120" t="n">
-        <v>22.91</v>
+        <v>22.83</v>
       </c>
       <c r="P120" t="n">
-        <v>41.25</v>
+        <v>40.19</v>
       </c>
       <c r="Q120" t="n">
-        <v>64.16</v>
+        <v>63.02</v>
       </c>
       <c r="R120" t="n">
-        <v>1898.4</v>
+        <v>2119.2</v>
       </c>
       <c r="S120" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T120"/>
       <c r="U120"/>
     </row>
     <row r="121">
@@ -7249,10 +7239,10 @@
         <v>30</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
@@ -7265,20 +7255,14 @@
       </c>
       <c r="M121"/>
       <c r="N121"/>
-      <c r="O121" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="P121" t="n">
-        <v>40.19</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>63.02</v>
-      </c>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
       <c r="R121" t="n">
-        <v>2119.2</v>
+        <v>1906.6</v>
       </c>
       <c r="S121" t="n">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="T121"/>
       <c r="U121"/>
@@ -7294,39 +7278,55 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E122" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122"/>
+      <c r="J122" t="n">
+        <v>4</v>
+      </c>
       <c r="K122" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L122" t="s">
-        <v>25</v>
-      </c>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+        <v>48</v>
+      </c>
+      <c r="M122" t="n">
+        <v>29</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="P122" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>66.95</v>
+      </c>
       <c r="R122" t="n">
-        <v>1906.6</v>
+        <v>1480.7</v>
       </c>
       <c r="S122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T122"/>
-      <c r="U122"/>
+        <v>13.1</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -7345,15 +7345,15 @@
         <v>31</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K123" t="s">
         <v>24</v>
@@ -7362,31 +7362,31 @@
         <v>48</v>
       </c>
       <c r="M123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N123" t="n">
         <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="P123" t="n">
-        <v>46.05</v>
+        <v>46.42</v>
       </c>
       <c r="Q123" t="n">
-        <v>66.95</v>
+        <v>67.02</v>
       </c>
       <c r="R123" t="n">
-        <v>1480.7</v>
+        <v>1913.5</v>
       </c>
       <c r="S123" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="T123" t="n">
         <v>1</v>
       </c>
       <c r="U123" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="124">
@@ -7406,48 +7406,40 @@
         <v>31</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
-      <c r="J124" t="n">
-        <v>6</v>
-      </c>
+      <c r="J124"/>
       <c r="K124" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="s">
         <v>48</v>
       </c>
-      <c r="M124" t="n">
-        <v>30</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
+      <c r="M124"/>
+      <c r="N124"/>
       <c r="O124" t="n">
-        <v>20.6</v>
+        <v>21.03</v>
       </c>
       <c r="P124" t="n">
-        <v>46.42</v>
+        <v>45.88</v>
       </c>
       <c r="Q124" t="n">
-        <v>67.02</v>
+        <v>66.91</v>
       </c>
       <c r="R124" t="n">
-        <v>1913.5</v>
+        <v>2169</v>
       </c>
       <c r="S124" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="T124"/>
       <c r="U124" t="n">
-        <v>57.8</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="125">
@@ -7467,10 +7459,10 @@
         <v>31</v>
       </c>
       <c r="F125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
@@ -7483,24 +7475,18 @@
       </c>
       <c r="M125"/>
       <c r="N125"/>
-      <c r="O125" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="P125" t="n">
-        <v>45.88</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>66.91</v>
-      </c>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
       <c r="R125" t="n">
-        <v>2169</v>
+        <v>1665.3</v>
       </c>
       <c r="S125" t="n">
-        <v>14.2</v>
+        <v>12.7</v>
       </c>
       <c r="T125"/>
       <c r="U125" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="126">
@@ -7514,40 +7500,54 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E126" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126"/>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
       <c r="K126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L126" t="s">
-        <v>48</v>
-      </c>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+        <v>25</v>
+      </c>
+      <c r="M126" t="n">
+        <v>27</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="P126" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>65.85</v>
+      </c>
       <c r="R126" t="n">
-        <v>1665.3</v>
+        <v>2010</v>
       </c>
       <c r="S126" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="T126"/>
+        <v>11.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1</v>
+      </c>
       <c r="U126" t="n">
-        <v>58.4</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="127">
@@ -7567,10 +7567,10 @@
         <v>32</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
@@ -7584,22 +7584,22 @@
         <v>25</v>
       </c>
       <c r="M127" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N127" t="n">
         <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>21.87</v>
+        <v>21.8</v>
       </c>
       <c r="P127" t="n">
-        <v>43.98</v>
+        <v>43.6</v>
       </c>
       <c r="Q127" t="n">
-        <v>65.85</v>
+        <v>65.4</v>
       </c>
       <c r="R127" t="n">
-        <v>2010</v>
+        <v>2451.3</v>
       </c>
       <c r="S127" t="n">
         <v>11.5</v>
@@ -7628,48 +7628,40 @@
         <v>32</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
-      <c r="J128" t="n">
-        <v>6</v>
-      </c>
+      <c r="J128"/>
       <c r="K128" t="s">
         <v>27</v>
       </c>
       <c r="L128" t="s">
         <v>25</v>
       </c>
-      <c r="M128" t="n">
-        <v>26</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1</v>
-      </c>
+      <c r="M128"/>
+      <c r="N128"/>
       <c r="O128" t="n">
-        <v>21.8</v>
+        <v>21.93</v>
       </c>
       <c r="P128" t="n">
-        <v>43.6</v>
+        <v>44.31</v>
       </c>
       <c r="Q128" t="n">
-        <v>65.4</v>
+        <v>66.24</v>
       </c>
       <c r="R128" t="n">
-        <v>2451.3</v>
+        <v>2041.7</v>
       </c>
       <c r="S128" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T128" t="n">
-        <v>1</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="T128"/>
       <c r="U128" t="n">
-        <v>57.3</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="129">
@@ -7689,10 +7681,10 @@
         <v>32</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
@@ -7705,24 +7697,18 @@
       </c>
       <c r="M129"/>
       <c r="N129"/>
-      <c r="O129" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="P129" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>66.24</v>
-      </c>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
       <c r="R129" t="n">
-        <v>2041.7</v>
+        <v>1825.8</v>
       </c>
       <c r="S129" t="n">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="T129"/>
       <c r="U129" t="n">
-        <v>56.7</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="130">
@@ -7736,40 +7722,54 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E130" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
-      <c r="J130"/>
+      <c r="J130" t="n">
+        <v>9</v>
+      </c>
       <c r="K130" t="s">
         <v>27</v>
       </c>
       <c r="L130" t="s">
         <v>25</v>
       </c>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="M130" t="n">
+        <v>34</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O130" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="P130" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>67.07</v>
+      </c>
       <c r="R130" t="n">
-        <v>1825.8</v>
+        <v>1614.1</v>
       </c>
       <c r="S130" t="n">
-        <v>11</v>
-      </c>
-      <c r="T130"/>
+        <v>14</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1</v>
+      </c>
       <c r="U130" t="n">
-        <v>57.1</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="131">
@@ -7789,15 +7789,15 @@
         <v>33</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K131" t="s">
         <v>27</v>
@@ -7809,28 +7809,28 @@
         <v>34</v>
       </c>
       <c r="N131" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
-        <v>21.71</v>
+        <v>21.46</v>
       </c>
       <c r="P131" t="n">
-        <v>45.36</v>
+        <v>46.09</v>
       </c>
       <c r="Q131" t="n">
-        <v>67.07</v>
+        <v>67.55</v>
       </c>
       <c r="R131" t="n">
-        <v>1614.1</v>
+        <v>1573.2</v>
       </c>
       <c r="S131" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="T131" t="n">
         <v>1</v>
       </c>
       <c r="U131" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="132">
@@ -7850,48 +7850,40 @@
         <v>33</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
-      <c r="J132" t="n">
-        <v>12</v>
-      </c>
+      <c r="J132"/>
       <c r="K132" t="s">
         <v>27</v>
       </c>
       <c r="L132" t="s">
         <v>25</v>
       </c>
-      <c r="M132" t="n">
-        <v>34</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1</v>
-      </c>
+      <c r="M132"/>
+      <c r="N132"/>
       <c r="O132" t="n">
-        <v>21.46</v>
+        <v>20.9</v>
       </c>
       <c r="P132" t="n">
-        <v>46.09</v>
+        <v>46.12</v>
       </c>
       <c r="Q132" t="n">
-        <v>67.55</v>
+        <v>67.02</v>
       </c>
       <c r="R132" t="n">
-        <v>1573.2</v>
+        <v>1998.8</v>
       </c>
       <c r="S132" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T132" t="n">
-        <v>1</v>
-      </c>
+        <v>14.1</v>
+      </c>
+      <c r="T132"/>
       <c r="U132" t="n">
-        <v>57.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="133">
@@ -7911,10 +7903,10 @@
         <v>33</v>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
@@ -7927,24 +7919,18 @@
       </c>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="O133" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="P133" t="n">
-        <v>46.12</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>67.02</v>
-      </c>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
       <c r="R133" t="n">
-        <v>1998.8</v>
+        <v>2195.5</v>
       </c>
       <c r="S133" t="n">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="T133"/>
       <c r="U133" t="n">
-        <v>58.1</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="134">
@@ -7958,40 +7944,54 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E134" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
-      <c r="J134"/>
+      <c r="J134" t="n">
+        <v>9</v>
+      </c>
       <c r="K134" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L134" t="s">
         <v>25</v>
       </c>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="M134" t="n">
+        <v>24</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="P134" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>65.69</v>
+      </c>
       <c r="R134" t="n">
-        <v>2195.5</v>
+        <v>1675.3</v>
       </c>
       <c r="S134" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="T134"/>
+        <v>12.6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1</v>
+      </c>
       <c r="U134" t="n">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="135">
@@ -8011,15 +8011,15 @@
         <v>34</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K135" t="s">
         <v>24</v>
@@ -8034,25 +8034,25 @@
         <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>20.45</v>
+        <v>21.64</v>
       </c>
       <c r="P135" t="n">
-        <v>45.24</v>
+        <v>44.12</v>
       </c>
       <c r="Q135" t="n">
-        <v>65.69</v>
+        <v>65.76</v>
       </c>
       <c r="R135" t="n">
-        <v>1675.3</v>
+        <v>2099.9</v>
       </c>
       <c r="S135" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="T135" t="n">
         <v>1</v>
       </c>
       <c r="U135" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136">
@@ -8072,48 +8072,40 @@
         <v>34</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
-      <c r="J136" t="n">
-        <v>7</v>
-      </c>
+      <c r="J136"/>
       <c r="K136" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="s">
         <v>25</v>
       </c>
-      <c r="M136" t="n">
-        <v>24</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1</v>
-      </c>
+      <c r="M136"/>
+      <c r="N136"/>
       <c r="O136" t="n">
-        <v>21.64</v>
+        <v>20.75</v>
       </c>
       <c r="P136" t="n">
-        <v>44.12</v>
+        <v>44.65</v>
       </c>
       <c r="Q136" t="n">
-        <v>65.76</v>
+        <v>65.4</v>
       </c>
       <c r="R136" t="n">
-        <v>2099.9</v>
+        <v>1966.6</v>
       </c>
       <c r="S136" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1</v>
-      </c>
+        <v>12.1</v>
+      </c>
+      <c r="T136"/>
       <c r="U136" t="n">
-        <v>58</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="137">
@@ -8133,10 +8125,10 @@
         <v>34</v>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
@@ -8149,24 +8141,18 @@
       </c>
       <c r="M137"/>
       <c r="N137"/>
-      <c r="O137" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="P137" t="n">
-        <v>44.65</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>65.4</v>
-      </c>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
       <c r="R137" t="n">
-        <v>1966.6</v>
+        <v>1693.9</v>
       </c>
       <c r="S137" t="n">
         <v>12.1</v>
       </c>
       <c r="T137"/>
       <c r="U137" t="n">
-        <v>57.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138">
@@ -8180,40 +8166,54 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E138" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
-      <c r="J138"/>
+      <c r="J138" t="n">
+        <v>7</v>
+      </c>
       <c r="K138" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L138" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+        <v>48</v>
+      </c>
+      <c r="M138" t="n">
+        <v>30</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="P138" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>63.54</v>
+      </c>
       <c r="R138" t="n">
-        <v>1693.9</v>
+        <v>1760.7</v>
       </c>
       <c r="S138" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T138"/>
+        <v>14.5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1</v>
+      </c>
       <c r="U138" t="n">
-        <v>58</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="139">
@@ -8233,15 +8233,15 @@
         <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K139" t="s">
         <v>27</v>
@@ -8256,25 +8256,25 @@
         <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>20.87</v>
+        <v>20.99</v>
       </c>
       <c r="P139" t="n">
-        <v>42.67</v>
+        <v>42.52</v>
       </c>
       <c r="Q139" t="n">
-        <v>63.54</v>
+        <v>63.51</v>
       </c>
       <c r="R139" t="n">
-        <v>1760.7</v>
+        <v>2220</v>
       </c>
       <c r="S139" t="n">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="T139" t="n">
         <v>1</v>
       </c>
       <c r="U139" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="140">
@@ -8294,48 +8294,40 @@
         <v>35</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
-      <c r="J140" t="n">
-        <v>6</v>
-      </c>
+      <c r="J140"/>
       <c r="K140" t="s">
         <v>27</v>
       </c>
       <c r="L140" t="s">
         <v>48</v>
       </c>
-      <c r="M140" t="n">
-        <v>30</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1</v>
-      </c>
+      <c r="M140"/>
+      <c r="N140"/>
       <c r="O140" t="n">
-        <v>20.99</v>
+        <v>20.83</v>
       </c>
       <c r="P140" t="n">
-        <v>42.52</v>
+        <v>42.41</v>
       </c>
       <c r="Q140" t="n">
-        <v>63.51</v>
+        <v>63.24</v>
       </c>
       <c r="R140" t="n">
-        <v>2220</v>
+        <v>2052.6</v>
       </c>
       <c r="S140" t="n">
         <v>13.9</v>
       </c>
-      <c r="T140" t="n">
-        <v>1</v>
-      </c>
+      <c r="T140"/>
       <c r="U140" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="141">
@@ -8355,10 +8347,10 @@
         <v>35</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
@@ -8371,24 +8363,18 @@
       </c>
       <c r="M141"/>
       <c r="N141"/>
-      <c r="O141" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="P141" t="n">
-        <v>42.41</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>63.24</v>
-      </c>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
       <c r="R141" t="n">
-        <v>2052.6</v>
+        <v>1808.8</v>
       </c>
       <c r="S141" t="n">
-        <v>13.9</v>
+        <v>11.8</v>
       </c>
       <c r="T141"/>
       <c r="U141" t="n">
-        <v>55.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="142">
@@ -8402,40 +8388,54 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E142" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
-      <c r="J142"/>
+      <c r="J142" t="n">
+        <v>6</v>
+      </c>
       <c r="K142" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L142" t="s">
         <v>48</v>
       </c>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+      <c r="M142" t="n">
+        <v>27</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P142" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>63.91</v>
+      </c>
       <c r="R142" t="n">
-        <v>1808.8</v>
+        <v>1954.5</v>
       </c>
       <c r="S142" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T142"/>
+        <v>15.1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1</v>
+      </c>
       <c r="U142" t="n">
-        <v>56.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="143">
@@ -8455,10 +8455,10 @@
         <v>36</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
@@ -8478,25 +8478,25 @@
         <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>21.8</v>
+        <v>21.57</v>
       </c>
       <c r="P143" t="n">
-        <v>42.11</v>
+        <v>42.57</v>
       </c>
       <c r="Q143" t="n">
-        <v>63.91</v>
+        <v>64.14</v>
       </c>
       <c r="R143" t="n">
-        <v>1954.5</v>
+        <v>2177.3</v>
       </c>
       <c r="S143" t="n">
-        <v>15.1</v>
+        <v>12.8</v>
       </c>
       <c r="T143" t="n">
         <v>1</v>
       </c>
       <c r="U143" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
@@ -8516,48 +8516,40 @@
         <v>36</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144" t="n">
-        <v>6</v>
-      </c>
+      <c r="J144"/>
       <c r="K144" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="s">
         <v>48</v>
       </c>
-      <c r="M144" t="n">
-        <v>27</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1</v>
-      </c>
+      <c r="M144"/>
+      <c r="N144"/>
       <c r="O144" t="n">
-        <v>21.57</v>
+        <v>21.66</v>
       </c>
       <c r="P144" t="n">
-        <v>42.57</v>
+        <v>42.94</v>
       </c>
       <c r="Q144" t="n">
-        <v>64.14</v>
+        <v>64.6</v>
       </c>
       <c r="R144" t="n">
-        <v>2177.3</v>
+        <v>1991.2</v>
       </c>
       <c r="S144" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T144" t="n">
-        <v>1</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="T144"/>
       <c r="U144" t="n">
-        <v>55</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="145">
@@ -8577,10 +8569,10 @@
         <v>36</v>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
@@ -8593,24 +8585,18 @@
       </c>
       <c r="M145"/>
       <c r="N145"/>
-      <c r="O145" t="n">
-        <v>21.66</v>
-      </c>
-      <c r="P145" t="n">
-        <v>42.94</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>64.6</v>
-      </c>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
       <c r="R145" t="n">
-        <v>1991.2</v>
+        <v>1945.1</v>
       </c>
       <c r="S145" t="n">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="T145"/>
       <c r="U145" t="n">
-        <v>56.3</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="146">
@@ -8624,40 +8610,54 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E146" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
-      <c r="J146"/>
+      <c r="J146" t="n">
+        <v>4</v>
+      </c>
       <c r="K146" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L146" t="s">
         <v>48</v>
       </c>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="M146" t="n">
+        <v>24</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="P146" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>66.1</v>
+      </c>
       <c r="R146" t="n">
-        <v>1945.1</v>
+        <v>1810.6</v>
       </c>
       <c r="S146" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T146"/>
+        <v>11.7</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1</v>
+      </c>
       <c r="U146" t="n">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="147">
@@ -8677,15 +8677,15 @@
         <v>37</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K147" t="s">
         <v>27</v>
@@ -8694,22 +8694,22 @@
         <v>48</v>
       </c>
       <c r="M147" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N147" t="n">
         <v>1</v>
       </c>
       <c r="O147" t="n">
-        <v>21.57</v>
+        <v>20.72</v>
       </c>
       <c r="P147" t="n">
-        <v>44.53</v>
+        <v>45.17</v>
       </c>
       <c r="Q147" t="n">
-        <v>66.1</v>
+        <v>65.89</v>
       </c>
       <c r="R147" t="n">
-        <v>1810.6</v>
+        <v>2128.4</v>
       </c>
       <c r="S147" t="n">
         <v>11.7</v>
@@ -8718,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="U147" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="148">
@@ -8738,48 +8738,40 @@
         <v>37</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
-      <c r="J148" t="n">
-        <v>5</v>
-      </c>
+      <c r="J148"/>
       <c r="K148" t="s">
         <v>27</v>
       </c>
       <c r="L148" t="s">
         <v>48</v>
       </c>
-      <c r="M148" t="n">
-        <v>25</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
+      <c r="M148"/>
+      <c r="N148"/>
       <c r="O148" t="n">
-        <v>20.72</v>
+        <v>21.42</v>
       </c>
       <c r="P148" t="n">
-        <v>45.17</v>
+        <v>44.98</v>
       </c>
       <c r="Q148" t="n">
-        <v>65.89</v>
+        <v>66.4</v>
       </c>
       <c r="R148" t="n">
-        <v>2128.4</v>
+        <v>2109</v>
       </c>
       <c r="S148" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T148" t="n">
-        <v>1</v>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="T148"/>
       <c r="U148" t="n">
-        <v>56.5</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="149">
@@ -8799,10 +8791,10 @@
         <v>37</v>
       </c>
       <c r="F149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
@@ -8815,24 +8807,18 @@
       </c>
       <c r="M149"/>
       <c r="N149"/>
-      <c r="O149" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="P149" t="n">
-        <v>44.98</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>66.4</v>
-      </c>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
       <c r="R149" t="n">
-        <v>2109</v>
+        <v>1974.2</v>
       </c>
       <c r="S149" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="T149"/>
       <c r="U149" t="n">
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="150">
@@ -8846,40 +8832,54 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E150" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
-      <c r="J150"/>
+      <c r="J150" t="n">
+        <v>6</v>
+      </c>
       <c r="K150" t="s">
         <v>27</v>
       </c>
       <c r="L150" t="s">
         <v>48</v>
       </c>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="M150" t="n">
+        <v>27</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>23</v>
+      </c>
+      <c r="P150" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>63.23</v>
+      </c>
       <c r="R150" t="n">
-        <v>1974.2</v>
+        <v>1888</v>
       </c>
       <c r="S150" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="T150"/>
+        <v>15</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
       <c r="U150" t="n">
-        <v>56.9</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="151">
@@ -8899,15 +8899,15 @@
         <v>38</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K151" t="s">
         <v>27</v>
@@ -8916,31 +8916,31 @@
         <v>48</v>
       </c>
       <c r="M151" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N151" t="n">
         <v>1</v>
       </c>
       <c r="O151" t="n">
-        <v>23</v>
+        <v>23.71</v>
       </c>
       <c r="P151" t="n">
-        <v>40.23</v>
+        <v>39.82</v>
       </c>
       <c r="Q151" t="n">
-        <v>63.23</v>
+        <v>63.53</v>
       </c>
       <c r="R151" t="n">
-        <v>1888</v>
+        <v>2072.4</v>
       </c>
       <c r="S151" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="T151" t="n">
         <v>1</v>
       </c>
       <c r="U151" t="n">
-        <v>58.7</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="152">
@@ -8960,48 +8960,40 @@
         <v>38</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
-      <c r="J152" t="n">
-        <v>8</v>
-      </c>
+      <c r="J152"/>
       <c r="K152" t="s">
         <v>27</v>
       </c>
       <c r="L152" t="s">
         <v>48</v>
       </c>
-      <c r="M152" t="n">
-        <v>30</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
+      <c r="M152"/>
+      <c r="N152"/>
       <c r="O152" t="n">
-        <v>23.71</v>
+        <v>22.78</v>
       </c>
       <c r="P152" t="n">
-        <v>39.82</v>
+        <v>40.1</v>
       </c>
       <c r="Q152" t="n">
-        <v>63.53</v>
+        <v>62.88</v>
       </c>
       <c r="R152" t="n">
-        <v>2072.4</v>
+        <v>1956.6</v>
       </c>
       <c r="S152" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="T152" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T152"/>
       <c r="U152" t="n">
-        <v>56.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153">
@@ -9021,10 +9013,10 @@
         <v>38</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
@@ -9037,24 +9029,18 @@
       </c>
       <c r="M153"/>
       <c r="N153"/>
-      <c r="O153" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="P153" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>62.88</v>
-      </c>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
       <c r="R153" t="n">
-        <v>1956.6</v>
+        <v>2088.9</v>
       </c>
       <c r="S153" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="T153"/>
       <c r="U153" t="n">
-        <v>57</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="154">
@@ -9068,40 +9054,54 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E154" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154"/>
+      <c r="J154" t="n">
+        <v>4</v>
+      </c>
       <c r="K154" t="s">
         <v>27</v>
       </c>
       <c r="L154" t="s">
         <v>48</v>
       </c>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="M154" t="n">
+        <v>23</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="P154" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>66.57</v>
+      </c>
       <c r="R154" t="n">
-        <v>2088.9</v>
+        <v>1625.7</v>
       </c>
       <c r="S154" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T154"/>
+        <v>14.5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1</v>
+      </c>
       <c r="U154" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="155">
@@ -9121,15 +9121,15 @@
         <v>39</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K155" t="s">
         <v>27</v>
@@ -9138,31 +9138,31 @@
         <v>48</v>
       </c>
       <c r="M155" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N155" t="n">
         <v>1</v>
       </c>
       <c r="O155" t="n">
-        <v>22.51</v>
+        <v>22.47</v>
       </c>
       <c r="P155" t="n">
-        <v>44.06</v>
+        <v>43.52</v>
       </c>
       <c r="Q155" t="n">
-        <v>66.57</v>
+        <v>65.99</v>
       </c>
       <c r="R155" t="n">
-        <v>1625.7</v>
+        <v>2106.8</v>
       </c>
       <c r="S155" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="T155" t="n">
         <v>1</v>
       </c>
       <c r="U155" t="n">
-        <v>57.8</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="156">
@@ -9182,48 +9182,40 @@
         <v>39</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
+      <c r="J156"/>
       <c r="K156" t="s">
         <v>27</v>
       </c>
       <c r="L156" t="s">
         <v>48</v>
       </c>
-      <c r="M156" t="n">
-        <v>25</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
+      <c r="M156"/>
+      <c r="N156"/>
       <c r="O156" t="n">
-        <v>22.47</v>
+        <v>22.06</v>
       </c>
       <c r="P156" t="n">
-        <v>43.52</v>
+        <v>44.65</v>
       </c>
       <c r="Q156" t="n">
-        <v>65.99</v>
+        <v>66.71</v>
       </c>
       <c r="R156" t="n">
-        <v>2106.8</v>
+        <v>1900.5</v>
       </c>
       <c r="S156" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T156" t="n">
-        <v>1</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="T156"/>
       <c r="U156" t="n">
-        <v>56.8</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="157">
@@ -9243,10 +9235,10 @@
         <v>39</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
@@ -9259,24 +9251,18 @@
       </c>
       <c r="M157"/>
       <c r="N157"/>
-      <c r="O157" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="P157" t="n">
-        <v>44.65</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>66.71</v>
-      </c>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
       <c r="R157" t="n">
-        <v>1900.5</v>
+        <v>1665.8</v>
       </c>
       <c r="S157" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="T157"/>
       <c r="U157" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="158">
@@ -9290,40 +9276,54 @@
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E158" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
-      <c r="J158"/>
+      <c r="J158" t="n">
+        <v>4</v>
+      </c>
       <c r="K158" t="s">
         <v>27</v>
       </c>
       <c r="L158" t="s">
-        <v>48</v>
-      </c>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+        <v>25</v>
+      </c>
+      <c r="M158" t="n">
+        <v>28</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O158" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="P158" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>67.34</v>
+      </c>
       <c r="R158" t="n">
-        <v>1665.8</v>
+        <v>1805.5</v>
       </c>
       <c r="S158" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T158"/>
+        <v>16</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1</v>
+      </c>
       <c r="U158" t="n">
-        <v>57.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="159">
@@ -9343,15 +9343,15 @@
         <v>40</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K159" t="s">
         <v>27</v>
@@ -9366,25 +9366,25 @@
         <v>1.5</v>
       </c>
       <c r="O159" t="n">
-        <v>19.67</v>
+        <v>19.92</v>
       </c>
       <c r="P159" t="n">
-        <v>47.67</v>
+        <v>46.88</v>
       </c>
       <c r="Q159" t="n">
-        <v>67.34</v>
+        <v>66.8</v>
       </c>
       <c r="R159" t="n">
-        <v>1805.5</v>
+        <v>1840.2</v>
       </c>
       <c r="S159" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="T159" t="n">
         <v>1</v>
       </c>
       <c r="U159" t="n">
-        <v>57.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="160">
@@ -9404,48 +9404,40 @@
         <v>40</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
-      <c r="J160" t="n">
-        <v>5</v>
-      </c>
+      <c r="J160"/>
       <c r="K160" t="s">
         <v>27</v>
       </c>
       <c r="L160" t="s">
         <v>25</v>
       </c>
-      <c r="M160" t="n">
-        <v>28</v>
-      </c>
-      <c r="N160" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M160"/>
+      <c r="N160"/>
       <c r="O160" t="n">
-        <v>19.92</v>
+        <v>19.59</v>
       </c>
       <c r="P160" t="n">
-        <v>46.88</v>
+        <v>47.79</v>
       </c>
       <c r="Q160" t="n">
-        <v>66.8</v>
+        <v>67.38</v>
       </c>
       <c r="R160" t="n">
-        <v>1840.2</v>
+        <v>1705.7</v>
       </c>
       <c r="S160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T160" t="n">
-        <v>1</v>
-      </c>
+        <v>15.4</v>
+      </c>
+      <c r="T160"/>
       <c r="U160" t="n">
-        <v>56.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="161">
@@ -9465,10 +9457,10 @@
         <v>40</v>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
@@ -9481,70 +9473,17 @@
       </c>
       <c r="M161"/>
       <c r="N161"/>
-      <c r="O161" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="P161" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>67.38</v>
-      </c>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
       <c r="R161" t="n">
-        <v>1705.7</v>
+        <v>1583.5</v>
       </c>
       <c r="S161" t="n">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="T161"/>
       <c r="U161" t="n">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="s">
-        <v>68</v>
-      </c>
-      <c r="E162" t="n">
-        <v>40</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4</v>
-      </c>
-      <c r="G162" t="n">
-        <v>154</v>
-      </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162" t="s">
-        <v>27</v>
-      </c>
-      <c r="L162" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162"/>
-      <c r="P162"/>
-      <c r="Q162"/>
-      <c r="R162" t="n">
-        <v>1583.5</v>
-      </c>
-      <c r="S162" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T162"/>
-      <c r="U162" t="n">
         <v>58.1</v>
       </c>
     </row>
